--- a/VRvis/논문리스트.xlsx
+++ b/VRvis/논문리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\수빈\Documents\Data-Visualization-Lab-RND\VRvis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D87C091-D2D1-4541-A8D1-3A3B8A78C42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD23064-B227-4762-B986-F9DE4F83DA9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4512" yWindow="3240" windowWidth="19488" windowHeight="12276" xr2:uid="{EDECBEAE-DF0B-42E5-8077-EC38E8FE744A}"/>
+    <workbookView xWindow="9492" yWindow="5184" windowWidth="19488" windowHeight="12276" xr2:uid="{EDECBEAE-DF0B-42E5-8077-EC38E8FE744A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="322">
   <si>
     <t>https://ieeexplore.ieee.org/abstract/document/6116324</t>
   </si>
@@ -1286,6 +1286,22 @@
   <si>
     <t>모델</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8556024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3170427.3188617</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-030-20473-0_22</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8700226</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/j.1467-8659.2011.01928.x</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1341,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1335,12 +1351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,7 +1372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,9 +1389,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1699,11 +1706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BB8FBD-CD52-485E-A8E1-830CD321E1E7}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2190,278 +2197,275 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B36"/>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B42"/>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>254</v>
       </c>
@@ -2472,38 +2476,38 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>205</v>
       </c>
@@ -2520,39 +2524,38 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
         <v>311</v>
       </c>
@@ -2563,146 +2566,145 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="57" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="58" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+    <row r="61" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+    <row r="62" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+    <row r="63" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    <row r="64" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
         <v>308</v>
       </c>
@@ -2713,100 +2715,100 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    <row r="66" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    <row r="67" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    <row r="68" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+    <row r="69" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+    <row r="70" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+    <row r="71" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>314</v>
       </c>
@@ -2823,237 +2825,257 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+    <row r="73" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+    <row r="74" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+    <row r="75" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+    <row r="76" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+    <row r="77" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+    <row r="78" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+    <row r="79" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
+    <row r="80" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B81"/>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B82"/>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+    <row r="83" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B83"/>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B84"/>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B85"/>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="3" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C89" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C90" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C91" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C92" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C93" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3150,8 +3172,13 @@
     <hyperlink ref="E13" r:id="rId84" xr:uid="{69FC8F4D-4F2C-4F10-BF4E-044D93A21090}"/>
     <hyperlink ref="E17" r:id="rId85" xr:uid="{D3F42837-6674-4324-8048-56AE863A0401}"/>
     <hyperlink ref="E8" r:id="rId86" xr:uid="{C766CF00-AF39-44F1-B071-60B3D5B8EC10}"/>
+    <hyperlink ref="C89" r:id="rId87" xr:uid="{5C92BC13-0500-44E9-9DF8-DC5A8BE522D7}"/>
+    <hyperlink ref="C90" r:id="rId88" xr:uid="{2BF172EA-04D2-4C18-873F-6519A82FF27E}"/>
+    <hyperlink ref="C91" r:id="rId89" xr:uid="{7BB6C0B0-8F1E-443B-9712-4D132FC08A91}"/>
+    <hyperlink ref="C92" r:id="rId90" xr:uid="{084FBCBA-6D8C-4CE9-8A8E-1C0060A8CC14}"/>
+    <hyperlink ref="C93" r:id="rId91" xr:uid="{482C835B-CB2E-479A-9CC7-A1884FAD1591}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
 </worksheet>
 </file>